--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl3-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl3-Ackr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.669061</v>
+        <v>0.515328</v>
       </c>
       <c r="H2">
-        <v>1.338122</v>
+        <v>1.030656</v>
       </c>
       <c r="I2">
-        <v>0.002237193723528829</v>
+        <v>0.0001613041071716636</v>
       </c>
       <c r="J2">
-        <v>0.001492575542564459</v>
+        <v>0.0001075508877125494</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -570,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1864320634873333</v>
+        <v>0.143594772992</v>
       </c>
       <c r="R2">
-        <v>1.118592380924</v>
+        <v>0.8615686379520001</v>
       </c>
       <c r="S2">
-        <v>0.002237193723528829</v>
+        <v>0.0001613041071716636</v>
       </c>
       <c r="T2">
-        <v>0.001492575542564459</v>
+        <v>0.0001075508877125494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +590,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>157.3478953333333</v>
+        <v>178.0773926666667</v>
       </c>
       <c r="H3">
-        <v>472.043686</v>
+        <v>534.232178</v>
       </c>
       <c r="I3">
-        <v>0.5261369648659905</v>
+        <v>0.05574045041518104</v>
       </c>
       <c r="J3">
-        <v>0.5265296144488896</v>
+        <v>0.0557481303058525</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -632,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>43.84457144024578</v>
+        <v>49.62079059351956</v>
       </c>
       <c r="R3">
-        <v>394.601142962212</v>
+        <v>446.587115341676</v>
       </c>
       <c r="S3">
-        <v>0.5261369648659905</v>
+        <v>0.05574045041518104</v>
       </c>
       <c r="T3">
-        <v>0.5265296144488896</v>
+        <v>0.0557481303058525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +652,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.255528333333333</v>
+        <v>0.8050075</v>
       </c>
       <c r="H4">
-        <v>3.766585</v>
+        <v>1.610015</v>
       </c>
       <c r="I4">
-        <v>0.004198212281161127</v>
+        <v>0.0002519774125488872</v>
       </c>
       <c r="J4">
-        <v>0.004201345355647805</v>
+        <v>0.0001680080865783736</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -694,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.3498496220077778</v>
+        <v>0.2243131931883333</v>
       </c>
       <c r="R4">
-        <v>3.14864659807</v>
+        <v>1.34587915913</v>
       </c>
       <c r="S4">
-        <v>0.004198212281161127</v>
+        <v>0.0002519774125488872</v>
       </c>
       <c r="T4">
-        <v>0.004201345355647805</v>
+        <v>0.0001680080865783736</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +714,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>139.790128</v>
+        <v>2891.564290333333</v>
       </c>
       <c r="H5">
-        <v>419.370384</v>
+        <v>8674.692870999999</v>
       </c>
       <c r="I5">
-        <v>0.4674276291293196</v>
+        <v>0.9050957762467463</v>
       </c>
       <c r="J5">
-        <v>0.4677764646528982</v>
+        <v>0.905220479878615</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -756,16 +759,78 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>38.95214639352534</v>
+        <v>805.7266786632758</v>
       </c>
       <c r="R5">
-        <v>350.569317541728</v>
+        <v>7251.540107969482</v>
       </c>
       <c r="S5">
-        <v>0.4674276291293196</v>
+        <v>0.9050957762467463</v>
       </c>
       <c r="T5">
-        <v>0.4677764646528982</v>
+        <v>0.905220479878615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>123.798543</v>
+      </c>
+      <c r="H6">
+        <v>371.395629</v>
+      </c>
+      <c r="I6">
+        <v>0.03875049181835219</v>
+      </c>
+      <c r="J6">
+        <v>0.03875583084124156</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.2786473333333334</v>
+      </c>
+      <c r="N6">
+        <v>0.8359420000000001</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>34.496133877502</v>
+      </c>
+      <c r="R6">
+        <v>310.465204897518</v>
+      </c>
+      <c r="S6">
+        <v>0.03875049181835219</v>
+      </c>
+      <c r="T6">
+        <v>0.03875583084124156</v>
       </c>
     </row>
   </sheetData>
